--- a/Rank-sumRatio/RSR 分析结果报告.xlsx
+++ b/Rank-sumRatio/RSR 分析结果报告.xlsx
@@ -500,28 +500,28 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.01659200265472043</v>
+        <v>-60.27</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4.260157050187776</v>
       </c>
       <c r="F2">
-        <v>0.06191950464396286</v>
+        <v>-16.15</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7.911704312114992</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.7390620454100921</v>
       </c>
       <c r="I2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>5.385320466407568</v>
+        <v>5.2533471031358</v>
       </c>
       <c r="K2">
-        <v>0.5853200412148453</v>
+        <v>0.6827195673840784</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -535,34 +535,34 @@
         <v>96.52</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8.156037991858883</v>
       </c>
       <c r="D3">
-        <v>0.01675884028825205</v>
+        <v>-59.67</v>
       </c>
       <c r="E3">
+        <v>4.352338682144076</v>
+      </c>
+      <c r="F3">
+        <v>-20.1</v>
+      </c>
+      <c r="G3">
+        <v>4.261806981519506</v>
+      </c>
+      <c r="H3">
+        <v>0.5590061218507487</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>4.158378766427086</v>
+      </c>
+      <c r="K3">
+        <v>0.4606915503168928</v>
+      </c>
+      <c r="L3">
         <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0.04975124378109452</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="I3">
-        <v>8.5</v>
-      </c>
-      <c r="J3">
-        <v>4.325510249803918</v>
-      </c>
-      <c r="K3">
-        <v>0.3503710420582191</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -573,22 +573,22 @@
         <v>99.36</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>9.890094979647214</v>
       </c>
       <c r="D4">
-        <v>0.02277385561375541</v>
+        <v>-43.91</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6.773642881529532</v>
       </c>
       <c r="F4">
-        <v>0.06410256410256411</v>
+        <v>-15.6</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>8.419917864476387</v>
       </c>
       <c r="H4">
-        <v>0.7666666666666666</v>
+        <v>0.836121857521771</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -597,10 +597,10 @@
         <v>6.2815515655446</v>
       </c>
       <c r="K4">
-        <v>0.7840052364095974</v>
+        <v>0.8912097951603978</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -611,34 +611,34 @@
         <v>92.83</v>
       </c>
       <c r="C5">
+        <v>5.902985074626863</v>
+      </c>
+      <c r="D5">
+        <v>-58.99</v>
+      </c>
+      <c r="E5">
+        <v>4.456811198361215</v>
+      </c>
+      <c r="F5">
+        <v>-17.04</v>
+      </c>
+      <c r="G5">
+        <v>7.089322381930186</v>
+      </c>
+      <c r="H5">
+        <v>0.5816372884972754</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>4.475599487291959</v>
+      </c>
+      <c r="K5">
+        <v>0.5250147688658026</v>
+      </c>
+      <c r="L5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0.01695202576707917</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.05868544600938967</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>0.4</v>
-      </c>
-      <c r="I5">
-        <v>8.5</v>
-      </c>
-      <c r="J5">
-        <v>4.325510249803918</v>
-      </c>
-      <c r="K5">
-        <v>0.3503710420582191</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -649,31 +649,31 @@
         <v>91.70999999999999</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5.219131614653998</v>
       </c>
       <c r="D6">
-        <v>0.02824858757062147</v>
+        <v>-35.4</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>8.081085694776373</v>
       </c>
       <c r="F6">
-        <v>0.06662225183211193</v>
+        <v>-15.01</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>8.965092402464066</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.7421769903964812</v>
       </c>
       <c r="I6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>5.385320466407568</v>
+        <v>5.52440051270804</v>
       </c>
       <c r="K6">
-        <v>0.5853200412148453</v>
+        <v>0.7376813859399639</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -687,22 +687,22 @@
         <v>95.34999999999999</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7.441655359565802</v>
       </c>
       <c r="D7">
-        <v>0.02236636099306643</v>
+        <v>-44.71</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>6.650734038921132</v>
       </c>
       <c r="F7">
-        <v>0.07178750897343862</v>
+        <v>-13.93</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>9.963039014373718</v>
       </c>
       <c r="H7">
-        <v>0.6666666666666666</v>
+        <v>0.8018476137620217</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>5.841621233572914</v>
       </c>
       <c r="K7">
-        <v>0.6864772171698611</v>
+        <v>0.8020046044888739</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -725,22 +725,22 @@
         <v>96.09</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7.89348710990502</v>
       </c>
       <c r="D8">
-        <v>0.02007628990162618</v>
+        <v>-49.81</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>5.86719016729259</v>
       </c>
       <c r="F8">
-        <v>0.05737234652897304</v>
+        <v>-17.43</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6.728952772073923</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.682987668309051</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -749,10 +749,10 @@
         <v>4.7466528968642</v>
       </c>
       <c r="K8">
-        <v>0.4437340252403202</v>
+        <v>0.5799765874216883</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -763,22 +763,22 @@
         <v>99.27</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9.835142469470821</v>
       </c>
       <c r="D9">
-        <v>0.03155569580309246</v>
+        <v>-31.69</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>8.651075452372822</v>
       </c>
       <c r="F9">
-        <v>0.07199424046076314</v>
+        <v>-13.89</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>0.9</v>
+        <v>0.949540597394788</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>6.959963984540054</v>
       </c>
       <c r="K9">
-        <v>0.9344022757674634</v>
+        <v>1.028772279018215</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -801,22 +801,22 @@
         <v>94.76000000000001</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>7.081411126187247</v>
       </c>
       <c r="D10">
-        <v>0.04364906154517678</v>
+        <v>-22.91</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>0.05032712632108707</v>
+        <v>-19.87</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4.474332648870636</v>
       </c>
       <c r="H10">
-        <v>0.5666666666666667</v>
+        <v>0.7185247925019294</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -825,10 +825,10 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>0.4998984661830966</v>
+        <v>0.6313480774028833</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.01227144434899988</v>
+        <v>-81.48999999999999</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.04231908590774439</v>
+        <v>-23.63</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>3.7184484344554</v>
       </c>
       <c r="K11">
-        <v>0.2157916959565956</v>
+        <v>0.3714863596453689</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -925,22 +925,22 @@
         <v>99.27</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9.835142469470821</v>
       </c>
       <c r="D2">
-        <v>0.03155569580309246</v>
+        <v>-31.69</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8.651075452372822</v>
       </c>
       <c r="F2">
-        <v>0.07199424046076314</v>
+        <v>-13.89</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.949540597394788</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>6.959963984540054</v>
       </c>
       <c r="K2">
-        <v>0.9344022757674634</v>
+        <v>1.028772279018215</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -957,75 +957,75 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>99.36</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7.441655359565802</v>
       </c>
       <c r="D3">
-        <v>0.02277385561375541</v>
+        <v>-44.71</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6.650734038921132</v>
       </c>
       <c r="F3">
-        <v>0.06410256410256411</v>
+        <v>-13.93</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>9.963039014373718</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666666</v>
+        <v>0.8018476137620217</v>
       </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5.841621233572914</v>
+      </c>
+      <c r="K3">
+        <v>0.8020046044888739</v>
+      </c>
+      <c r="L3">
         <v>2</v>
-      </c>
-      <c r="J3">
-        <v>6.2815515655446</v>
-      </c>
-      <c r="K3">
-        <v>0.7840052364095974</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>94.76000000000001</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="C4">
+        <v>5.219131614653998</v>
+      </c>
+      <c r="D4">
+        <v>-35.4</v>
+      </c>
+      <c r="E4">
+        <v>8.081085694776373</v>
+      </c>
+      <c r="F4">
+        <v>-15.01</v>
+      </c>
+      <c r="G4">
+        <v>8.965092402464066</v>
+      </c>
+      <c r="H4">
+        <v>0.7421769903964812</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0.04364906154517678</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0.05032712632108707</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
       <c r="J4">
-        <v>5</v>
+        <v>5.52440051270804</v>
       </c>
       <c r="K4">
-        <v>0.4998984661830966</v>
+        <v>0.7376813859399639</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1033,37 +1033,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>96.09</v>
+        <v>99.36</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9.890094979647214</v>
       </c>
       <c r="D5">
-        <v>0.02007628990162618</v>
+        <v>-43.91</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6.773642881529532</v>
       </c>
       <c r="F5">
-        <v>0.05737234652897304</v>
+        <v>-15.6</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8.419917864476387</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.836121857521771</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>4.7466528968642</v>
+        <v>6.2815515655446</v>
       </c>
       <c r="K5">
-        <v>0.4437340252403202</v>
+        <v>0.8912097951603978</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1071,37 +1071,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>95.34999999999999</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>-60.27</v>
+      </c>
+      <c r="E6">
+        <v>4.260157050187776</v>
+      </c>
+      <c r="F6">
+        <v>-16.15</v>
+      </c>
+      <c r="G6">
+        <v>7.911704312114992</v>
+      </c>
+      <c r="H6">
+        <v>0.7390620454100921</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0.02236636099306643</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0.07178750897343862</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6">
-        <v>5.841621233572914</v>
+        <v>5.2533471031358</v>
       </c>
       <c r="K6">
-        <v>0.6864772171698611</v>
+        <v>0.6827195673840784</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1109,189 +1109,189 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>91.70999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.02824858757062147</v>
+        <v>-81.48999999999999</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.06662225183211193</v>
+        <v>-23.63</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>5.385320466407568</v>
+        <v>3.7184484344554</v>
       </c>
       <c r="K7">
-        <v>0.5853200412148453</v>
+        <v>0.3714863596453689</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>92.83</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="C8">
+        <v>7.081411126187247</v>
+      </c>
+      <c r="D8">
+        <v>-22.91</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-19.87</v>
+      </c>
+      <c r="G8">
+        <v>4.474332648870636</v>
+      </c>
+      <c r="H8">
+        <v>0.7185247925019294</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0.6313480774028833</v>
+      </c>
+      <c r="L8">
         <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0.01695202576707917</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>0.05868544600938967</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0.4</v>
-      </c>
-      <c r="I8">
-        <v>8.5</v>
-      </c>
-      <c r="J8">
-        <v>4.325510249803918</v>
-      </c>
-      <c r="K8">
-        <v>0.3503710420582191</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>96.52</v>
+        <v>96.09</v>
       </c>
       <c r="C9">
+        <v>7.89348710990502</v>
+      </c>
+      <c r="D9">
+        <v>-49.81</v>
+      </c>
+      <c r="E9">
+        <v>5.86719016729259</v>
+      </c>
+      <c r="F9">
+        <v>-17.43</v>
+      </c>
+      <c r="G9">
+        <v>6.728952772073923</v>
+      </c>
+      <c r="H9">
+        <v>0.682987668309051</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>0.01675884028825205</v>
-      </c>
-      <c r="E9">
+      <c r="J9">
+        <v>4.7466528968642</v>
+      </c>
+      <c r="K9">
+        <v>0.5799765874216883</v>
+      </c>
+      <c r="L9">
         <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.04975124378109452</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0.4</v>
-      </c>
-      <c r="I9">
-        <v>8.5</v>
-      </c>
-      <c r="J9">
-        <v>4.325510249803918</v>
-      </c>
-      <c r="K9">
-        <v>0.3503710420582191</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>99.54000000000001</v>
+        <v>92.83</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5.902985074626863</v>
       </c>
       <c r="D10">
-        <v>0.01659200265472043</v>
+        <v>-58.99</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4.456811198361215</v>
       </c>
       <c r="F10">
-        <v>0.06191950464396286</v>
+        <v>-17.04</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7.089322381930186</v>
       </c>
       <c r="H10">
-        <v>0.6</v>
+        <v>0.5816372884972754</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>5.385320466407568</v>
+        <v>4.475599487291959</v>
       </c>
       <c r="K10">
-        <v>0.5853200412148453</v>
+        <v>0.5250147688658026</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>84.8</v>
+        <v>96.52</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8.156037991858883</v>
       </c>
       <c r="D11">
-        <v>0.01227144434899988</v>
+        <v>-59.67</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4.352338682144076</v>
       </c>
       <c r="F11">
-        <v>0.04231908590774439</v>
+        <v>-20.1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4.261806981519506</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>0.5590061218507487</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>3.7184484344554</v>
+        <v>4.158378766427086</v>
       </c>
       <c r="K11">
-        <v>0.2157916959565956</v>
+        <v>0.4606915503168928</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1304,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1349,141 +1349,181 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>0.4</v>
+        <v>0.5590061218507487</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>4.325510249803918</v>
+        <v>4.158378766427086</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>0.5</v>
+        <v>0.5816372884972754</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>4.7466528968642</v>
+        <v>4.475599487291959</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>0.5666666666666667</v>
+        <v>0.682987668309051</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4.7466528968642</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>0.6</v>
+        <v>0.7185247925019294</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>5.385320466407568</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>0.6666666666666666</v>
+        <v>0.7390620454100921</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>5.841621233572914</v>
+        <v>5.2533471031358</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>0.7666666666666666</v>
+        <v>0.7421769903964812</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
-        <v>6.2815515655446</v>
+        <v>5.52440051270804</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>0.8018476137620217</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>5.841621233572914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>0.836121857521771</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="F10">
+        <v>6.2815515655446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0.949540597394788</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0.975</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>6.959963984540054</v>
       </c>
     </row>
